--- a/LSTMRegressionAAPL_data_with_prediction.xlsx
+++ b/LSTMRegressionAAPL_data_with_prediction.xlsx
@@ -645,6 +645,9 @@
       <c r="AA2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
       <c r="AC2">
         <v>0</v>
       </c>
@@ -731,8 +734,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -820,11 +826,14 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>-0</v>
+        <v>-0.002178269582643555</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -909,11 +918,14 @@
       <c r="AA5">
         <v>1</v>
       </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>-0</v>
+        <v>-0.006505413901501833</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -998,6 +1010,9 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
       <c r="AC6">
         <v>0</v>
       </c>
@@ -1087,8 +1102,11 @@
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>0</v>
